--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,63 +247,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.64453125" customWidth="true"/>
-    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="10" max="10" width="15.24609375" customWidth="true"/>
     <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.43604696942558901</v>
+        <v>0.43733570941851607</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.38524783215622388</v>
+        <v>0.38609305706739067</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.037290801643522928</v>
+        <v>-0.037712506720277782</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0022246647193800892</v>
+        <v>0.0021677788199635159</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0065632076717460405</v>
+        <v>-0.0065804770510286825</v>
       </c>
       <c r="G3" s="0">
-        <v>0.020030720150504808</v>
+        <v>0.02013926719455408</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.0021159016271739971</v>
+        <v>-0.0021194881224011093</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.035769784350296284</v>
+        <v>-0.035822408990568641</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0086851731534892118</v>
+        <v>0.0086851825186332055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.38518748510801015</v>
+        <v>0.386933510793528</v>
       </c>
       <c r="C4" s="0">
-        <v>0.014003370721967475</v>
+        <v>0.014949331827655529</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0063545334128365851</v>
+        <v>0.0062443665885895247</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0041365021795289275</v>
+        <v>-0.0041046564785450854</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0027345938444726697</v>
+        <v>0.0027417522721464738</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0048182151336758697</v>
+        <v>-0.0048292222931155468</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.011544594228132797</v>
+        <v>-0.011507576218694268</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0026535334861528814</v>
+        <v>-0.0026535419718992648</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.49646025215667178</v>
+        <v>0.49867622018984881</v>
       </c>
       <c r="C5" s="0">
-        <v>0.15309953720987565</v>
+        <v>0.15483817319727505</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0098685096579017965</v>
+        <v>-0.010247081911041006</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.012843348974713783</v>
+        <v>-0.013129856503409105</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0093681572823683251</v>
+        <v>0.0087061080084365802</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.040401620297836213</v>
+        <v>-0.040357555473309652</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0049330256837653921</v>
+        <v>0.0049502055783548103</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0078195122751668379</v>
+        <v>-0.0078223021991839226</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.014805038078270882</v>
+        <v>0.014805018699198036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.40348234066538413</v>
+        <v>0.40223077763667914</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0070963147720880752</v>
+        <v>-0.010355563066151244</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.17904130977269608</v>
+        <v>-0.17902421774545491</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00098250273955737769</v>
+        <v>0.0010346888043497218</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.012425181940508748</v>
+        <v>0.012538990259454749</v>
       </c>
       <c r="I6" s="0">
-        <v>0.068177473340439665</v>
+        <v>0.067786085284000319</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.011574555032990763</v>
+        <v>0.011574573910631658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.37713125968833044</v>
+        <v>0.37530726784054225</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.061217881943779043</v>
+        <v>0.061485632105847537</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0019574453640533772</v>
+        <v>-0.0023420756961862565</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.10537960670696261</v>
+        <v>-0.10589717749909019</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.0025769209687231736</v>
+        <v>-0.002535490048060517</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00527871581565088</v>
+        <v>-0.0052581111710945675</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.027623725934557308</v>
+        <v>0.027623712512447107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12860458591358148</v>
+        <v>0.12830453245437112</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.23876698025659437</v>
+        <v>-0.23734721367592448</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.053984284510387816</v>
+        <v>0.053723759091085725</v>
       </c>
       <c r="F8" s="0">
-        <v>0.013169123410923569</v>
+        <v>0.013147778961419087</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.0009495891370249808</v>
+        <v>-0.00094805291607163718</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.074752671048426325</v>
+        <v>-0.074368240794667126</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0012108412540146607</v>
+        <v>-0.0012107660520126462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.02870921691427053</v>
+        <v>0.028058698140802363</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.058509836546632409</v>
+        <v>-0.059111275493806306</v>
       </c>
       <c r="E9" s="0">
-        <v>0.00095258953815643272</v>
+        <v>0.0010374724631778101</v>
       </c>
       <c r="F9" s="0">
-        <v>0.035356061705709693</v>
+        <v>0.03519889810463913</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.054519284262455898</v>
+        <v>-0.054182998919725264</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0012901373457705233</v>
+        <v>-0.0013003166946010012</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.013413549742112892</v>
+        <v>-0.013416413356474657</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0084712123462053618</v>
+        <v>-0.0084712004167784849</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.32285087073686108</v>
+        <v>0.32677108288562112</v>
       </c>
       <c r="C10" s="0">
-        <v>0.32651128272002755</v>
+        <v>0.33112973181037714</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.014313534129161093</v>
+        <v>-0.014297089691692876</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.01062774682675954</v>
+        <v>-0.010616102648969903</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.0006216942162678978</v>
+        <v>-0.00062236013732893769</v>
       </c>
       <c r="I10" s="0">
-        <v>0.01165023343097381</v>
+        <v>0.011571330186565566</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0010088133396506953</v>
+        <v>-0.0010051515686163371</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.017448073816571597</v>
+        <v>-0.017447973205515943</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.6138246820150095</v>
+        <v>0.61873481680576248</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.29566194242405536</v>
+        <v>0.2957468444718051</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.01412691302434935</v>
+        <v>-0.014021195040515633</v>
       </c>
       <c r="F11" s="0">
-        <v>0.065170039987969441</v>
+        <v>0.06599290665306784</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.066864954019359199</v>
+        <v>-0.066581457928560794</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.002626509141118409</v>
+        <v>-0.0026171951948883352</v>
       </c>
       <c r="I11" s="0">
-        <v>0.066744317530385552</v>
+        <v>0.066427941433684995</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.052984112479434964</v>
+        <v>-0.05298411047445184</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.37782466267080023</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.21920260315913931</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>-0.0036759534487288584</v>
+      </c>
+      <c r="F12" s="0">
+        <v>-0.0020463478214041912</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00043926312430392432</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.015287234045076557</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.00025875253630935902</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,63 +388,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="15.24609375" customWidth="true"/>
     <col min="6" max="6" width="15.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="15.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.24609375" customWidth="true"/>
+    <col min="10" max="10" width="16.24609375" customWidth="true"/>
     <col min="11" max="11" width="15.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.43733570941851607</v>
+        <v>0.43780312142787503</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.38609305706739067</v>
+        <v>0.38636444238444134</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.037712506720277782</v>
+        <v>-0.037967584233518724</v>
       </c>
       <c r="E3" s="0">
-        <v>0.0021677788199635159</v>
+        <v>0.0022007164252110306</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0065804770510286825</v>
+        <v>-0.0066120320582935196</v>
       </c>
       <c r="G3" s="0">
-        <v>0.02013926719455408</v>
+        <v>0.020175722214739965</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.0021194881224011093</v>
+        <v>-0.0021202949779610225</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.035822408990568641</v>
+        <v>-0.035800395027203155</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.0086851825186332055</v>
+        <v>0.0086851886135917433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.386933510793528</v>
+        <v>0.38833924637171113</v>
       </c>
       <c r="C4" s="0">
-        <v>0.014949331827655529</v>
+        <v>0.016210737873649857</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0062443665885895247</v>
+        <v>0.0062631655407366866</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0041046564785450854</v>
+        <v>-0.0041292095373833149</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.0027417522721464738</v>
+        <v>0.0026174222962114134</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0048292222931155468</v>
+        <v>-0.0048630889065578338</v>
       </c>
       <c r="J4" s="0">
-        <v>-0.011507576218694268</v>
+        <v>-0.011470665679878344</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.0026535419718992648</v>
+        <v>-0.0026535575995086935</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.49867622018984881</v>
+        <v>0.49844595246276496</v>
       </c>
       <c r="C5" s="0">
-        <v>0.15483817319727505</v>
+        <v>0.15212209685493791</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.010247081911041006</v>
+        <v>-0.0089950760276876849</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.013129856503409105</v>
+        <v>-0.012864469074251862</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0087061080084365802</v>
+        <v>0.0084507751690858952</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.040357555473309652</v>
+        <v>-0.040460671225221768</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0049502055783548103</v>
+        <v>0.0048829129893850527</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0078223021991839226</v>
+        <v>-0.0078339452073600407</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.014805018699198036</v>
+        <v>0.014805082612166343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.40223077763667914</v>
+        <v>0.40617610318885022</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.010355563066151244</v>
+        <v>-0.0056965935530612841</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.17902421774545491</v>
+        <v>-0.17951507944418801</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0010346888043497218</v>
+        <v>0.0010768499180186289</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.012538990259454749</v>
+        <v>0.012724749893987131</v>
       </c>
       <c r="I6" s="0">
-        <v>0.067786085284000319</v>
+        <v>0.067565704847211555</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.011574573910631658</v>
+        <v>0.011574519064117272</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.37530726784054225</v>
+        <v>0.37892858987164402</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.061485632105847537</v>
+        <v>0.060500728398507501</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0023420756961862565</v>
+        <v>-0.0028095383018490946</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.10589717749909019</v>
+        <v>-0.10471261932534894</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.002535490048060517</v>
+        <v>-0.0026020770410442448</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0052581111710945675</v>
+        <v>-0.0052476920154215373</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.027623712512447107</v>
+        <v>0.027623684967950091</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.12830453245437112</v>
+        <v>0.12126239072341191</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.23734721367592448</v>
+        <v>-0.248473992681841</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>0.053723759091085725</v>
+        <v>0.054057427103181482</v>
       </c>
       <c r="F8" s="0">
-        <v>0.013147778961419087</v>
+        <v>0.013165871005400696</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.00094805291607163718</v>
+        <v>-0.00094739969839542908</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.074368240794667126</v>
+        <v>-0.074257376177883375</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.0012107660520126462</v>
+        <v>-0.0012107286986944299</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.028058698140802363</v>
+        <v>0.019628669909220631</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.059111275493806306</v>
+        <v>-0.058832470768522202</v>
       </c>
       <c r="E9" s="0">
-        <v>0.0010374724631778101</v>
+        <v>0.00105887032569979</v>
       </c>
       <c r="F9" s="0">
-        <v>0.03519889810463913</v>
+        <v>0.03388260532068213</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.054182998919725264</v>
+        <v>-0.054503120508855307</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0013003166946010012</v>
+        <v>-0.001353758684571193</v>
       </c>
       <c r="I9" s="0">
-        <v>-0.013416413356474657</v>
+        <v>-0.013414661495551794</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.0084712004167784849</v>
+        <v>-0.0084711850030727009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.32677108288562112</v>
+        <v>0.31987926047453136</v>
       </c>
       <c r="C10" s="0">
-        <v>0.33112973181037714</v>
+        <v>0.33279571875862546</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.014297089691692876</v>
+        <v>-0.014562501481080896</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.010616102648969903</v>
+        <v>-0.010661208646923406</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00062236013732893769</v>
+        <v>-0.00062482250787204447</v>
       </c>
       <c r="I10" s="0">
-        <v>0.011571330186565566</v>
+        <v>0.01171371500481345</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0010051515686163371</v>
+        <v>-0.00096229121162654918</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.017447973205515943</v>
+        <v>-0.017448019350625288</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.61873481680576248</v>
+        <v>0.6155239688089601</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.2957468444718051</v>
+        <v>0.29847491845859558</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.014021195040515633</v>
+        <v>-0.013838664649014912</v>
       </c>
       <c r="F11" s="0">
-        <v>0.06599290665306784</v>
+        <v>0.066170351860753152</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.066581457928560794</v>
+        <v>-0.067271091640007635</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.0026171951948883352</v>
+        <v>-0.0025911457006388291</v>
       </c>
       <c r="I11" s="0">
-        <v>0.066427941433684995</v>
+        <v>0.067684493348538294</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.05298411047445184</v>
+        <v>-0.052984153343796914</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.37782466267080023</v>
+        <v>0.28261343471566175</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.21920260315913931</v>
+        <v>-0.24702836027958627</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.0036759534487288584</v>
+        <v>-0.010909424642511911</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.0020463478214041912</v>
+        <v>-0.016553907163026953</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00043926312430392432</v>
+        <v>-0.005086440070668526</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.015287234045076557</v>
+        <v>-0.055646504923162657</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.00025875253630935902</v>
+        <v>0.0023141029856580397</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.25436166629490264</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.21724085620395217</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.039249966519547048</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.015808419794958787</v>
+      </c>
+      <c r="G13" s="0">
+        <v>-0.013148283305601798</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0041025723946472199</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0055653321839883784</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.22704167760272437</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.2262270801460341</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.0062792005468923062</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.015020717510032706</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0077253434233253869</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-0.00055640525105001188</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.040410999571631592</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00074175595978653863</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr8_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.43780312142787503</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.38636444238444134</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.38833924637171113</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.49844595246276496</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.40617610318885022</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.37892858987164402</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.12126239072341191</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.019628669909220631</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.31987926047453136</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.6155239688089601</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.28261343471566175</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.25436166629490264</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.2262270801460341</v>
+        <v>0.22105727320554913</v>
       </c>
       <c r="C14" s="0">
-        <v>0.0062792005468923062</v>
+        <v>0.017483380665880927</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>0.015020717510032706</v>
+        <v>0.016229635264359592</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0077253434233253869</v>
+        <v>-0.0077613148450039384</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.00055640525105001188</v>
+        <v>-0.0030086425953823525</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.040410999571631592</v>
+        <v>-0.053079081025461106</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00074175595978653863</v>
+        <v>-0.0031683705537466356</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.21494792899178511</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.36006537637241454</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.026999819638626535</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.079379306590920365</v>
+      </c>
+      <c r="G15" s="0">
+        <v>-0.0036189362287785652</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.17870001582568801</v>
       </c>
     </row>
   </sheetData>
